--- a/cpp/multithreading/butenhof/3.3.2/cond.xlsx
+++ b/cpp/multithreading/butenhof/3.3.2/cond.xlsx
@@ -70,7 +70,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="61">
   <si>
     <t xml:space="preserve">Scope:</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t xml:space="preserve">Value:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread step</t>
   </si>
   <si>
     <t xml:space="preserve">Memory cell #</t>
@@ -434,7 +443,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -523,12 +532,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1167,7 +1180,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -1279,7 +1292,7 @@
       <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="22" t="n">
+      <c r="J2" s="24" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -1290,10 +1303,10 @@
       <c r="B3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="22"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1308,7 +1321,7 @@
       <c r="A6" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="24" t="n">
         <f aca="false">cond_3!J2 + cond_3!D5</f>
         <v>1000005</v>
       </c>
@@ -1410,20 +1423,20 @@
       <c r="J1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="23" t="s">
-        <v>40</v>
+      <c r="L1" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="M1" s="21" t="s">
         <v>24</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -1440,10 +1453,10 @@
       <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="22" t="n">
+      <c r="J2" s="24" t="n">
         <v>1000000</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="22"/>
       <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
@@ -1456,7 +1469,7 @@
       <c r="B3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="24"/>
       <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
@@ -1468,14 +1481,14 @@
         <v>6</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J4" s="22"/>
+      <c r="J4" s="24"/>
       <c r="L4" s="3" t="n">
         <f aca="false">cond_2!L3 + 1</f>
         <v>1</v>
@@ -1487,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>20</v>
@@ -1522,7 +1535,7 @@
       <c r="A6" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="24" t="n">
         <f aca="false">cond_2!J2 + cond_2!D5</f>
         <v>1000005</v>
       </c>
@@ -1554,20 +1567,20 @@
         <f aca="false">cond_2!B3</f>
         <v>NULL</v>
       </c>
-      <c r="L7" s="24" t="n">
+      <c r="L7" s="25" t="n">
         <f aca="false">cond_2!L6 + 1</f>
         <v>4</v>
       </c>
-      <c r="M7" s="24" t="s">
+      <c r="M7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="24" t="s">
+      <c r="N7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="24" t="s">
+      <c r="O7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1588,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>19</v>
@@ -1609,7 +1622,7 @@
         <v>7</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>20</v>
@@ -1652,20 +1665,20 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="24" t="n">
+      <c r="L12" s="25" t="n">
         <f aca="false">cond_2!L11 + 1</f>
         <v>9</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="24" t="s">
+      <c r="N12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="24" t="s">
+      <c r="O12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1948,19 +1961,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1974,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
@@ -1989,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -2719,35 +2732,35 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="n">
+      <c r="A2" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2760,7 +2773,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>20</v>
@@ -2802,11 +2815,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="30" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>35</v>
@@ -2817,7 +2830,7 @@
         <f aca="false">memory_4!A6 + 1</f>
         <v>5</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="30"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2825,7 +2838,7 @@
         <f aca="false">memory_4!A7 + 1</f>
         <v>6</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2833,7 +2846,7 @@
         <f aca="false">memory_4!A8 + 1</f>
         <v>7</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2841,7 +2854,7 @@
         <f aca="false">memory_4!A9 + 1</f>
         <v>8</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,7 +2862,7 @@
         <f aca="false">memory_4!A10 + 1</f>
         <v>9</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,7 +2870,7 @@
         <f aca="false">memory_4!A11 + 1</f>
         <v>10</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,7 +2878,7 @@
         <f aca="false">memory_4!A12 + 1</f>
         <v>11</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="30"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,7 +2886,7 @@
         <f aca="false">memory_4!A13 + 1</f>
         <v>12</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +2894,7 @@
         <f aca="false">memory_4!A14 + 1</f>
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="30"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,7 +2902,7 @@
         <f aca="false">memory_4!A15 + 1</f>
         <v>14</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2910,7 @@
         <f aca="false">memory_4!A16 + 1</f>
         <v>15</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="30"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2918,7 @@
         <f aca="false">memory_4!A17 + 1</f>
         <v>16</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,7 +2926,7 @@
         <f aca="false">memory_4!A18 + 1</f>
         <v>17</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="30"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,7 +2934,7 @@
         <f aca="false">memory_4!A19 + 1</f>
         <v>18</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +2942,7 @@
         <f aca="false">memory_4!A20 + 1</f>
         <v>19</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="30"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,7 +2950,7 @@
         <f aca="false">memory_4!A21 + 1</f>
         <v>20</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="30"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +2958,7 @@
         <f aca="false">memory_4!A22 + 1</f>
         <v>21</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="30"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,7 +2966,7 @@
         <f aca="false">memory_4!A23 + 1</f>
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +2974,7 @@
         <f aca="false">memory_4!A24 + 1</f>
         <v>23</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="30"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,7 +2982,7 @@
         <f aca="false">memory_4!A25 + 1</f>
         <v>24</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="30"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +2990,7 @@
         <f aca="false">memory_4!A26 + 1</f>
         <v>25</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="30"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +2998,7 @@
         <f aca="false">memory_4!A27 + 1</f>
         <v>26</v>
       </c>
-      <c r="C28" s="29"/>
+      <c r="C28" s="30"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +3006,7 @@
         <f aca="false">memory_4!A28 + 1</f>
         <v>27</v>
       </c>
-      <c r="C29" s="29"/>
+      <c r="C29" s="30"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +3014,7 @@
         <f aca="false">memory_4!A29 + 1</f>
         <v>28</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="30"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3022,7 @@
         <f aca="false">memory_4!A30 + 1</f>
         <v>29</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,7 +3030,7 @@
         <f aca="false">memory_4!A31 + 1</f>
         <v>30</v>
       </c>
-      <c r="C32" s="29"/>
+      <c r="C32" s="30"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,7 +3038,7 @@
         <f aca="false">memory_4!A32 + 1</f>
         <v>31</v>
       </c>
-      <c r="C33" s="29"/>
+      <c r="C33" s="30"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3033,7 +3046,7 @@
         <f aca="false">memory_4!A33 + 1</f>
         <v>32</v>
       </c>
-      <c r="C34" s="29"/>
+      <c r="C34" s="30"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,7 +3054,7 @@
         <f aca="false">memory_4!A34 + 1</f>
         <v>33</v>
       </c>
-      <c r="C35" s="29"/>
+      <c r="C35" s="30"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3062,7 @@
         <f aca="false">memory_4!A35 + 1</f>
         <v>34</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="30"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,7 +3070,7 @@
         <f aca="false">memory_4!A36 + 1</f>
         <v>35</v>
       </c>
-      <c r="C37" s="29"/>
+      <c r="C37" s="30"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3065,7 +3078,7 @@
         <f aca="false">memory_4!A37 + 1</f>
         <v>36</v>
       </c>
-      <c r="C38" s="29"/>
+      <c r="C38" s="30"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3073,7 +3086,7 @@
         <f aca="false">memory_4!A38 + 1</f>
         <v>37</v>
       </c>
-      <c r="C39" s="29"/>
+      <c r="C39" s="30"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3081,7 +3094,7 @@
         <f aca="false">memory_4!A39 + 1</f>
         <v>38</v>
       </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="30"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3089,7 +3102,7 @@
         <f aca="false">memory_4!A40 + 1</f>
         <v>39</v>
       </c>
-      <c r="C41" s="29"/>
+      <c r="C41" s="30"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,7 +3110,7 @@
         <f aca="false">memory_4!A41 + 1</f>
         <v>40</v>
       </c>
-      <c r="C42" s="29"/>
+      <c r="C42" s="30"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3105,7 +3118,7 @@
         <f aca="false">memory_4!A42 + 1</f>
         <v>41</v>
       </c>
-      <c r="C43" s="29"/>
+      <c r="C43" s="30"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3113,7 +3126,7 @@
         <f aca="false">memory_4!A43 + 1</f>
         <v>42</v>
       </c>
-      <c r="C44" s="29"/>
+      <c r="C44" s="30"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,7 +3134,7 @@
         <f aca="false">memory_4!A44 + 1</f>
         <v>43</v>
       </c>
-      <c r="C45" s="29"/>
+      <c r="C45" s="30"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,7 +3142,7 @@
         <f aca="false">memory_4!A45 + 1</f>
         <v>44</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="30"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3137,7 +3150,7 @@
         <f aca="false">memory_4!A46 + 1</f>
         <v>45</v>
       </c>
-      <c r="C47" s="29"/>
+      <c r="C47" s="30"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3145,7 +3158,7 @@
         <f aca="false">memory_4!A47 + 1</f>
         <v>46</v>
       </c>
-      <c r="C48" s="29"/>
+      <c r="C48" s="30"/>
       <c r="E48" s="4"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,7 +3166,7 @@
         <f aca="false">memory_4!A48 + 1</f>
         <v>47</v>
       </c>
-      <c r="C49" s="29"/>
+      <c r="C49" s="30"/>
       <c r="E49" s="4"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,7 +3174,7 @@
         <f aca="false">memory_4!A49 + 1</f>
         <v>48</v>
       </c>
-      <c r="C50" s="29"/>
+      <c r="C50" s="30"/>
       <c r="E50" s="4"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3169,7 +3182,7 @@
         <f aca="false">memory_4!A50 + 1</f>
         <v>49</v>
       </c>
-      <c r="C51" s="29"/>
+      <c r="C51" s="30"/>
       <c r="E51" s="4"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3190,7 @@
         <f aca="false">memory_4!A51 + 1</f>
         <v>50</v>
       </c>
-      <c r="C52" s="29"/>
+      <c r="C52" s="30"/>
       <c r="E52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,7 +3198,7 @@
         <f aca="false">memory_4!A52 + 1</f>
         <v>51</v>
       </c>
-      <c r="C53" s="29"/>
+      <c r="C53" s="30"/>
       <c r="E53" s="4"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3193,7 +3206,7 @@
         <f aca="false">memory_4!A53 + 1</f>
         <v>52</v>
       </c>
-      <c r="C54" s="29"/>
+      <c r="C54" s="30"/>
       <c r="E54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,7 +3214,7 @@
         <f aca="false">memory_4!A54 + 1</f>
         <v>53</v>
       </c>
-      <c r="C55" s="29"/>
+      <c r="C55" s="30"/>
       <c r="E55" s="4"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3209,7 +3222,7 @@
         <f aca="false">memory_4!A55 + 1</f>
         <v>54</v>
       </c>
-      <c r="C56" s="29"/>
+      <c r="C56" s="30"/>
       <c r="E56" s="4"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3217,7 +3230,7 @@
         <f aca="false">memory_4!A56 + 1</f>
         <v>55</v>
       </c>
-      <c r="C57" s="29"/>
+      <c r="C57" s="30"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,7 +3238,7 @@
         <f aca="false">memory_4!A57 + 1</f>
         <v>56</v>
       </c>
-      <c r="C58" s="29"/>
+      <c r="C58" s="30"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3233,7 +3246,7 @@
         <f aca="false">memory_4!A58 + 1</f>
         <v>57</v>
       </c>
-      <c r="C59" s="29"/>
+      <c r="C59" s="30"/>
       <c r="E59" s="4"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,7 +3254,7 @@
         <f aca="false">memory_4!A59 + 1</f>
         <v>58</v>
       </c>
-      <c r="C60" s="29"/>
+      <c r="C60" s="30"/>
       <c r="E60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3262,7 @@
         <f aca="false">memory_4!A60 + 1</f>
         <v>59</v>
       </c>
-      <c r="C61" s="29"/>
+      <c r="C61" s="30"/>
       <c r="E61" s="4"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,7 +3270,7 @@
         <f aca="false">memory_4!A61 + 1</f>
         <v>60</v>
       </c>
-      <c r="C62" s="29"/>
+      <c r="C62" s="30"/>
       <c r="E62" s="4"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3265,7 +3278,7 @@
         <f aca="false">memory_4!A62 + 1</f>
         <v>61</v>
       </c>
-      <c r="C63" s="29"/>
+      <c r="C63" s="30"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,7 +3286,7 @@
         <f aca="false">memory_4!A63 + 1</f>
         <v>62</v>
       </c>
-      <c r="C64" s="29"/>
+      <c r="C64" s="30"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3281,7 +3294,7 @@
         <f aca="false">memory_4!A64 + 1</f>
         <v>63</v>
       </c>
-      <c r="C65" s="29"/>
+      <c r="C65" s="30"/>
       <c r="E65" s="4"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,7 +3302,7 @@
         <f aca="false">memory_4!A65 + 1</f>
         <v>64</v>
       </c>
-      <c r="C66" s="29"/>
+      <c r="C66" s="30"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,7 +3310,7 @@
         <f aca="false">memory_4!A66 + 1</f>
         <v>65</v>
       </c>
-      <c r="C67" s="29"/>
+      <c r="C67" s="30"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3305,20 +3318,20 @@
         <f aca="false">memory_4!A67 + 1</f>
         <v>66</v>
       </c>
-      <c r="C68" s="29"/>
+      <c r="C68" s="30"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="30" t="n">
+      <c r="A69" s="31" t="n">
         <f aca="false">memory_4!A68 + 1</f>
         <v>67</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E69" s="31"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="32"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="n">
@@ -3554,23 +3567,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3585,7 +3598,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>19</v>
@@ -3603,7 +3616,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>20</v>
@@ -3659,7 +3672,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>35</v>
@@ -3998,22 +4011,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4027,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>19</v>
@@ -4045,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>20</v>
@@ -4100,7 +4113,7 @@
         <v>34</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>35</v>
@@ -4437,13 +4450,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>24</v>
@@ -4739,7 +4752,7 @@
       <c r="A2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="22" t="n">
+      <c r="B2" s="24" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -4776,7 +4789,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4800,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5423,7 +5436,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>24</v>
@@ -5509,7 +5522,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -5538,7 +5551,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>30</v>
@@ -5583,15 +5596,15 @@
         <v>38</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>15</v>
@@ -5602,7 +5615,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>8</v>
@@ -5613,7 +5626,7 @@
       <c r="H2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="22" t="n">
+      <c r="I2" s="24" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -5630,7 +5643,7 @@
       <c r="A4" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="D4" s="22" t="n">
+      <c r="D4" s="24" t="n">
         <f aca="false">main_3!I2 + main_3!C3</f>
         <v>1000005</v>
       </c>
@@ -5688,18 +5701,18 @@
         <v>38</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>15</v>
@@ -5711,7 +5724,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0"/>
       <c r="D2" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>8</v>
@@ -5722,7 +5735,7 @@
       <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="22" t="n">
+      <c r="K2" s="24" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -5736,11 +5749,11 @@
       <c r="C3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="K4" s="22"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -5758,7 +5771,7 @@
       <c r="B6" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="24" t="n">
         <f aca="false">cond1!K2 + cond1!E5</f>
         <v>1000005</v>
       </c>
@@ -7111,7 +7124,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:20"/>
+  <dimension ref="1:21"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -7123,537 +7136,636 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="14.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="2.15816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="4" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="3" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="2.15816326530612"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="4" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="3" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="9.31632653061224"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="2" width="2.15816326530612"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="3" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="3" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="3" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="3" width="6.93877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="3" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="4" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="3" width="10.8826530612245"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="2.15816326530612"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="2" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="3" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="4" width="9.31632653061224"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="true" max="22" min="22" style="2" width="0"/>
+    <col collapsed="false" hidden="true" max="23" min="23" style="3" width="0"/>
+    <col collapsed="false" hidden="true" max="25" min="24" style="0" width="0"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="2" width="2.15816326530612"/>
+    <col collapsed="false" hidden="true" max="28" min="27" style="3" width="0"/>
   </cols>
   <sheetData>
     <row r="1" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="A1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="5"/>
       <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+    </row>
+    <row r="2" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="8" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="M3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="10" t="s">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="AA3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="N4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="O4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="T4" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="V4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="W4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="AA4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="18" t="n">
+      <c r="AB4" s="18" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="E5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="15" t="s">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="15" t="s">
+      <c r="L5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="R5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="V5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="W5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="X5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="C6" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <f aca="false">B5+1</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <f aca="false">C5+1</f>
+      <c r="D6" s="2" t="n">
+        <f aca="false">C6+1</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <f aca="false">D6+1</f>
         <v>2</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">D5+1</f>
+      <c r="F6" s="0" t="n">
+        <f aca="false">E6+1</f>
         <v>3</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <f aca="false">E5+1</f>
+      <c r="G6" s="0" t="n">
+        <f aca="false">F6+1</f>
         <v>4</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <f aca="false">F5+1</f>
+      <c r="J6" s="2" t="n">
+        <f aca="false">G6+1</f>
         <v>5</v>
       </c>
-      <c r="I5" s="3" t="n">
-        <f aca="false">H5+1</f>
+      <c r="K6" s="3" t="n">
+        <f aca="false">J6+1</f>
         <v>6</v>
       </c>
-      <c r="J5" s="0" t="n">
-        <f aca="false">I5+1</f>
+      <c r="L6" s="0" t="n">
+        <f aca="false">K6+1</f>
         <v>7</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <f aca="false">J5+1</f>
+      <c r="M6" s="4" t="n">
+        <f aca="false">L6+1</f>
         <v>8</v>
       </c>
-      <c r="L5" s="3" t="n">
-        <f aca="false">K5+1</f>
+      <c r="N6" s="3" t="n">
+        <f aca="false">M6+1</f>
         <v>9</v>
       </c>
-      <c r="M5" s="3" t="n">
-        <f aca="false">L5+1</f>
+      <c r="O6" s="3" t="n">
+        <f aca="false">N6+1</f>
         <v>10</v>
       </c>
-      <c r="O5" s="2" t="n">
-        <f aca="false">M5+1</f>
+      <c r="Q6" s="2" t="n">
+        <f aca="false">O6+1</f>
         <v>11</v>
       </c>
-      <c r="P5" s="3" t="n">
-        <f aca="false">O5+1</f>
+      <c r="R6" s="3" t="n">
+        <f aca="false">Q6+1</f>
         <v>12</v>
       </c>
-      <c r="Q5" s="0" t="n">
-        <f aca="false">P5+1</f>
+      <c r="S6" s="0" t="n">
+        <f aca="false">R6+1</f>
         <v>13</v>
       </c>
-      <c r="R5" s="4" t="n">
-        <f aca="false">Q5+1</f>
+      <c r="T6" s="4" t="n">
+        <f aca="false">S6+1</f>
         <v>14</v>
       </c>
-      <c r="S5" s="0" t="n">
-        <f aca="false">R5+1</f>
+      <c r="U6" s="0" t="n">
+        <f aca="false">T6+1</f>
         <v>15</v>
       </c>
-      <c r="T5" s="2" t="n">
-        <f aca="false">S5+1</f>
+      <c r="V6" s="2" t="n">
+        <f aca="false">U6+1</f>
         <v>16</v>
       </c>
-      <c r="U5" s="3" t="n">
-        <f aca="false">T5+1</f>
+      <c r="W6" s="3" t="n">
+        <f aca="false">V6+1</f>
         <v>17</v>
       </c>
-      <c r="V5" s="0" t="n">
-        <f aca="false">U5+1</f>
+      <c r="X6" s="0" t="n">
+        <f aca="false">W6+1</f>
         <v>18</v>
       </c>
-      <c r="W5" s="0" t="n">
-        <f aca="false">V5+1</f>
+      <c r="Y6" s="0" t="n">
+        <f aca="false">X6+1</f>
         <v>19</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="n">
+    <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="16"/>
-      <c r="R6" s="17"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="16"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
-      <c r="AMC6" s="0"/>
-      <c r="AMD6" s="0"/>
-      <c r="AME6" s="0"/>
-      <c r="AMF6" s="0"/>
-      <c r="AMG6" s="0"/>
-      <c r="AMH6" s="0"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="E7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+      <c r="T7" s="17"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="16"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <f aca="false">A7+1</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="U7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="14"/>
-      <c r="I8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="U8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="W8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="0"/>
-      <c r="O9" s="2" t="str">
-        <f aca="false">C7</f>
-        <v>NULL</v>
-      </c>
-      <c r="P9" s="0"/>
-      <c r="U9" s="0"/>
+        <f aca="false">A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="K9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="W9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="I10" s="0"/>
-      <c r="L10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" s="0"/>
-      <c r="U10" s="0"/>
+        <f aca="false">A9+1</f>
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="Q10" s="2" t="str">
+        <f aca="false">D8</f>
+        <v>NULL</v>
+      </c>
+      <c r="R10" s="0"/>
+      <c r="W10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
+        <f aca="false">A10+1</f>
+        <v>4</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="K11" s="0"/>
+      <c r="N11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="0"/>
+      <c r="W11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <f aca="false">A11+1</f>
+        <v>5</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="U11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="14"/>
-      <c r="I12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="U12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="W12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <f aca="false">O5</f>
-        <v>11</v>
-      </c>
+        <f aca="false">A12+1</f>
+        <v>6</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="K13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="W13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>5</v>
+        <f aca="false">A13+1</f>
+        <v>7</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="2" t="n">
+        <f aca="false">Q6</f>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>65</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
+        <f aca="false">A14+1</f>
+        <v>8</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>66</v>
-      </c>
-      <c r="K16" s="20"/>
-      <c r="R16" s="20" t="n">
-        <f aca="false">Z3+Q14</f>
-        <v>1000005</v>
-      </c>
-      <c r="W16" s="18"/>
+        <f aca="false">A15+1</f>
+        <v>9</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>67</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <f aca="false">C5</f>
-        <v>1</v>
-      </c>
+        <f aca="false">A16+1</f>
+        <v>10</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="M17" s="20"/>
+      <c r="T17" s="20" t="n">
+        <f aca="false">AB4+S15</f>
+        <v>1000005</v>
+      </c>
+      <c r="Y17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>68</v>
-      </c>
-      <c r="T18" s="2" t="str">
-        <f aca="false">C7</f>
-        <v>NULL</v>
+        <f aca="false">A17+1</f>
+        <v>11</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <f aca="false">D6</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <f aca="false">O13</f>
-        <v>11</v>
+        <f aca="false">A18+1</f>
+        <v>12</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="V19" s="2" t="str">
+        <f aca="false">D8</f>
+        <v>NULL</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
+        <f aca="false">A19+1</f>
+        <v>13</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <f aca="false">Q14</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <f aca="false">A20+1</f>
+        <v>14</v>
+      </c>
+      <c r="B21" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="O1:W1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:O2"/>
+    <mergeCell ref="Q2:Y2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7736,7 +7848,7 @@
       <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="22" t="n">
+      <c r="J2" s="24" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -7753,7 +7865,7 @@
       <c r="A4" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="24" t="n">
         <f aca="false">main_4!J2 + main_4!D3</f>
         <v>1000005</v>
       </c>
@@ -7819,24 +7931,24 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>40</v>
+      <c r="A1" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
@@ -7854,7 +7966,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>19</v>
@@ -7872,7 +7984,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>20</v>
@@ -7915,20 +8027,20 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="n">
+      <c r="A7" s="25" t="n">
         <f aca="false">memory!A6 + 1</f>
         <v>4</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -7942,7 +8054,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>19</v>
@@ -7960,7 +8072,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>20</v>
@@ -8003,20 +8115,20 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="n">
+      <c r="A12" s="25" t="n">
         <f aca="false">memory!A11 + 1</f>
         <v>9</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="D12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>35</v>
       </c>
     </row>
